--- a/名单.xlsx
+++ b/名单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="261">
   <si>
     <t>上海应用技术大学 学生点名册</t>
   </si>
@@ -827,7 +827,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="133" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2000,7 +2000,9 @@
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -3165,7 +3167,7 @@
         <v>32</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3715,7 +3717,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3907,7 +3909,7 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>237</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>29</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4059,7 +4061,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="265">
   <si>
     <t>上海应用技术大学 学生点名册</t>
   </si>
@@ -828,6 +828,22 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1197,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="133" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1331,9 @@
       <c r="E5" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1351,7 +1369,9 @@
       <c r="E6" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1387,7 +1407,9 @@
       <c r="E7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1423,7 +1445,9 @@
       <c r="E8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1457,7 +1481,9 @@
         <v>32</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1491,7 +1517,9 @@
         <v>32</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1831,7 +1859,9 @@
         <v>32</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2961,7 +2991,9 @@
       <c r="E53" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
